--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.84644</v>
+        <v>1.787066666666667</v>
       </c>
       <c r="H2">
-        <v>5.53932</v>
+        <v>5.3612</v>
       </c>
       <c r="I2">
-        <v>0.5174220289861029</v>
+        <v>0.4880702634734595</v>
       </c>
       <c r="J2">
-        <v>0.5174220289861029</v>
+        <v>0.4880702634734594</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.050779</v>
+        <v>0.130409</v>
       </c>
       <c r="N2">
-        <v>0.152337</v>
+        <v>0.391227</v>
       </c>
       <c r="O2">
-        <v>0.5296725381250739</v>
+        <v>0.9759813398859937</v>
       </c>
       <c r="P2">
-        <v>0.529672538125074</v>
+        <v>0.9759813398859937</v>
       </c>
       <c r="Q2">
-        <v>0.09376037676</v>
+        <v>0.2330495769333333</v>
       </c>
       <c r="R2">
-        <v>0.84384339084</v>
+        <v>2.0974461924</v>
       </c>
       <c r="S2">
-        <v>0.2740642393748947</v>
+        <v>0.476347469703337</v>
       </c>
       <c r="T2">
-        <v>0.2740642393748947</v>
+        <v>0.4763474697033369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.84644</v>
+        <v>1.787066666666667</v>
       </c>
       <c r="H3">
-        <v>5.53932</v>
+        <v>5.3612</v>
       </c>
       <c r="I3">
-        <v>0.5174220289861029</v>
+        <v>0.4880702634734595</v>
       </c>
       <c r="J3">
-        <v>0.5174220289861029</v>
+        <v>0.4880702634734594</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.04454466666666667</v>
+        <v>0.003209333333333333</v>
       </c>
       <c r="N3">
-        <v>0.133634</v>
+        <v>0.009627999999999999</v>
       </c>
       <c r="O3">
-        <v>0.4646426013365507</v>
+        <v>0.02401866011400631</v>
       </c>
       <c r="P3">
-        <v>0.4646426013365508</v>
+        <v>0.02401866011400631</v>
       </c>
       <c r="Q3">
-        <v>0.08224905432000001</v>
+        <v>0.005735292622222222</v>
       </c>
       <c r="R3">
-        <v>0.74024148888</v>
+        <v>0.0516176336</v>
       </c>
       <c r="S3">
-        <v>0.240416317536939</v>
+        <v>0.01172279377012253</v>
       </c>
       <c r="T3">
-        <v>0.240416317536939</v>
+        <v>0.01172279377012253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.84644</v>
+        <v>1.391264666666667</v>
       </c>
       <c r="H4">
-        <v>5.53932</v>
+        <v>4.173794</v>
       </c>
       <c r="I4">
-        <v>0.5174220289861029</v>
+        <v>0.3799717856569321</v>
       </c>
       <c r="J4">
-        <v>0.5174220289861029</v>
+        <v>0.379971785656932</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.000545</v>
+        <v>0.130409</v>
       </c>
       <c r="N4">
-        <v>0.001635</v>
+        <v>0.391227</v>
       </c>
       <c r="O4">
-        <v>0.005684860538375416</v>
+        <v>0.9759813398859937</v>
       </c>
       <c r="P4">
-        <v>0.005684860538375417</v>
+        <v>0.9759813398859937</v>
       </c>
       <c r="Q4">
-        <v>0.0010063098</v>
+        <v>0.1814334339153333</v>
       </c>
       <c r="R4">
-        <v>0.009056788200000001</v>
+        <v>1.632900905238</v>
       </c>
       <c r="S4">
-        <v>0.002941472074269237</v>
+        <v>0.3708453724843261</v>
       </c>
       <c r="T4">
-        <v>0.002941472074269238</v>
+        <v>0.3708453724843261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.391264666666666</v>
+        <v>1.391264666666667</v>
       </c>
       <c r="H5">
-        <v>4.173793999999999</v>
+        <v>4.173794</v>
       </c>
       <c r="I5">
-        <v>0.3898696879851718</v>
+        <v>0.3799717856569321</v>
       </c>
       <c r="J5">
-        <v>0.3898696879851718</v>
+        <v>0.379971785656932</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.050779</v>
+        <v>0.003209333333333333</v>
       </c>
       <c r="N5">
-        <v>0.152337</v>
+        <v>0.009627999999999999</v>
       </c>
       <c r="O5">
-        <v>0.5296725381250739</v>
+        <v>0.02401866011400631</v>
       </c>
       <c r="P5">
-        <v>0.529672538125074</v>
+        <v>0.02401866011400631</v>
       </c>
       <c r="Q5">
-        <v>0.07064702850866665</v>
+        <v>0.004465032070222222</v>
       </c>
       <c r="R5">
-        <v>0.6358232565779999</v>
+        <v>0.040185288632</v>
       </c>
       <c r="S5">
-        <v>0.2065032671731366</v>
+        <v>0.009126413172605909</v>
       </c>
       <c r="T5">
-        <v>0.2065032671731366</v>
+        <v>0.009126413172605907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.391264666666666</v>
+        <v>0.159805</v>
       </c>
       <c r="H6">
-        <v>4.173793999999999</v>
+        <v>0.479415</v>
       </c>
       <c r="I6">
-        <v>0.3898696879851718</v>
+        <v>0.04364474471445359</v>
       </c>
       <c r="J6">
-        <v>0.3898696879851718</v>
+        <v>0.04364474471445358</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04454466666666667</v>
+        <v>0.130409</v>
       </c>
       <c r="N6">
-        <v>0.133634</v>
+        <v>0.391227</v>
       </c>
       <c r="O6">
-        <v>0.4646426013365507</v>
+        <v>0.9759813398859937</v>
       </c>
       <c r="P6">
-        <v>0.4646426013365508</v>
+        <v>0.9759813398859937</v>
       </c>
       <c r="Q6">
-        <v>0.06197342082177777</v>
+        <v>0.020840010245</v>
       </c>
       <c r="R6">
-        <v>0.5577607873959999</v>
+        <v>0.187560092205</v>
       </c>
       <c r="S6">
-        <v>0.1811500660076996</v>
+        <v>0.04259645642539456</v>
       </c>
       <c r="T6">
-        <v>0.1811500660076996</v>
+        <v>0.04259645642539454</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.391264666666666</v>
+        <v>0.159805</v>
       </c>
       <c r="H7">
-        <v>4.173793999999999</v>
+        <v>0.479415</v>
       </c>
       <c r="I7">
-        <v>0.3898696879851718</v>
+        <v>0.04364474471445359</v>
       </c>
       <c r="J7">
-        <v>0.3898696879851718</v>
+        <v>0.04364474471445358</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.000545</v>
+        <v>0.003209333333333333</v>
       </c>
       <c r="N7">
-        <v>0.001635</v>
+        <v>0.009627999999999999</v>
       </c>
       <c r="O7">
-        <v>0.005684860538375416</v>
+        <v>0.02401866011400631</v>
       </c>
       <c r="P7">
-        <v>0.005684860538375417</v>
+        <v>0.02401866011400631</v>
       </c>
       <c r="Q7">
-        <v>0.0007582392433333332</v>
+        <v>0.0005128675133333333</v>
       </c>
       <c r="R7">
-        <v>0.00682415319</v>
+        <v>0.00461580762</v>
       </c>
       <c r="S7">
-        <v>0.002216354804335639</v>
+        <v>0.001048288289059034</v>
       </c>
       <c r="T7">
-        <v>0.00221635480433564</v>
+        <v>0.001048288289059034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05803133333333333</v>
+        <v>0.1755086666666667</v>
       </c>
       <c r="H8">
-        <v>0.174094</v>
+        <v>0.526526</v>
       </c>
       <c r="I8">
-        <v>0.01626193661213048</v>
+        <v>0.04793361253928724</v>
       </c>
       <c r="J8">
-        <v>0.01626193661213048</v>
+        <v>0.04793361253928723</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.050779</v>
+        <v>0.130409</v>
       </c>
       <c r="N8">
-        <v>0.152337</v>
+        <v>0.391227</v>
       </c>
       <c r="O8">
-        <v>0.5296725381250739</v>
+        <v>0.9759813398859937</v>
       </c>
       <c r="P8">
-        <v>0.529672538125074</v>
+        <v>0.9759813398859937</v>
       </c>
       <c r="Q8">
-        <v>0.002946773075333333</v>
+        <v>0.02288790971133333</v>
       </c>
       <c r="R8">
-        <v>0.026520957678</v>
+        <v>0.205991187402</v>
       </c>
       <c r="S8">
-        <v>0.008613501240176215</v>
+        <v>0.04678231139166963</v>
       </c>
       <c r="T8">
-        <v>0.008613501240176218</v>
+        <v>0.04678231139166962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05803133333333333</v>
+        <v>0.1755086666666667</v>
       </c>
       <c r="H9">
-        <v>0.174094</v>
+        <v>0.526526</v>
       </c>
       <c r="I9">
-        <v>0.01626193661213048</v>
+        <v>0.04793361253928724</v>
       </c>
       <c r="J9">
-        <v>0.01626193661213048</v>
+        <v>0.04793361253928723</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04454466666666667</v>
+        <v>0.003209333333333333</v>
       </c>
       <c r="N9">
-        <v>0.133634</v>
+        <v>0.009627999999999999</v>
       </c>
       <c r="O9">
-        <v>0.4646426013365507</v>
+        <v>0.02401866011400631</v>
       </c>
       <c r="P9">
-        <v>0.4646426013365508</v>
+        <v>0.02401866011400631</v>
       </c>
       <c r="Q9">
-        <v>0.002584986399555556</v>
+        <v>0.0005632658142222222</v>
       </c>
       <c r="R9">
-        <v>0.023264877596</v>
+        <v>0.005069392328</v>
       </c>
       <c r="S9">
-        <v>0.007555988530230399</v>
+        <v>0.001151301147617611</v>
       </c>
       <c r="T9">
-        <v>0.007555988530230402</v>
+        <v>0.001151301147617611</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05803133333333333</v>
+        <v>0.1478496666666667</v>
       </c>
       <c r="H10">
-        <v>0.174094</v>
+        <v>0.443549</v>
       </c>
       <c r="I10">
-        <v>0.01626193661213048</v>
+        <v>0.04037959361586762</v>
       </c>
       <c r="J10">
-        <v>0.01626193661213048</v>
+        <v>0.04037959361586761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.000545</v>
+        <v>0.130409</v>
       </c>
       <c r="N10">
-        <v>0.001635</v>
+        <v>0.391227</v>
       </c>
       <c r="O10">
-        <v>0.005684860538375416</v>
+        <v>0.9759813398859937</v>
       </c>
       <c r="P10">
-        <v>0.005684860538375417</v>
+        <v>0.9759813398859937</v>
       </c>
       <c r="Q10">
-        <v>3.162707666666667E-05</v>
+        <v>0.01928092718033333</v>
       </c>
       <c r="R10">
-        <v>0.00028464369</v>
+        <v>0.173528344623</v>
       </c>
       <c r="S10">
-        <v>9.244684172386295E-05</v>
+        <v>0.0394097298812664</v>
       </c>
       <c r="T10">
-        <v>9.244684172386299E-05</v>
+        <v>0.03940972988126638</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,356 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.14959</v>
+        <v>0.1478496666666667</v>
       </c>
       <c r="H11">
-        <v>0.44877</v>
+        <v>0.443549</v>
       </c>
       <c r="I11">
-        <v>0.04191913158078851</v>
+        <v>0.04037959361586762</v>
       </c>
       <c r="J11">
-        <v>0.04191913158078851</v>
+        <v>0.04037959361586761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.050779</v>
+        <v>0.003209333333333333</v>
       </c>
       <c r="N11">
-        <v>0.152337</v>
+        <v>0.009627999999999999</v>
       </c>
       <c r="O11">
-        <v>0.5296725381250739</v>
+        <v>0.02401866011400631</v>
       </c>
       <c r="P11">
-        <v>0.529672538125074</v>
+        <v>0.02401866011400631</v>
       </c>
       <c r="Q11">
-        <v>0.007596030609999999</v>
+        <v>0.0004744988635555555</v>
       </c>
       <c r="R11">
-        <v>0.06836427549</v>
+        <v>0.004270489771999999</v>
       </c>
       <c r="S11">
-        <v>0.02220341282039519</v>
+        <v>0.0009698637346012233</v>
       </c>
       <c r="T11">
-        <v>0.02220341282039519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.14959</v>
-      </c>
-      <c r="H12">
-        <v>0.44877</v>
-      </c>
-      <c r="I12">
-        <v>0.04191913158078851</v>
-      </c>
-      <c r="J12">
-        <v>0.04191913158078851</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.04454466666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.133634</v>
-      </c>
-      <c r="O12">
-        <v>0.4646426013365507</v>
-      </c>
-      <c r="P12">
-        <v>0.4646426013365508</v>
-      </c>
-      <c r="Q12">
-        <v>0.006663436686666667</v>
-      </c>
-      <c r="R12">
-        <v>0.05997093018</v>
-      </c>
-      <c r="S12">
-        <v>0.01947741434346673</v>
-      </c>
-      <c r="T12">
-        <v>0.01947741434346673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.14959</v>
-      </c>
-      <c r="H13">
-        <v>0.44877</v>
-      </c>
-      <c r="I13">
-        <v>0.04191913158078851</v>
-      </c>
-      <c r="J13">
-        <v>0.04191913158078851</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.000545</v>
-      </c>
-      <c r="N13">
-        <v>0.001635</v>
-      </c>
-      <c r="O13">
-        <v>0.005684860538375416</v>
-      </c>
-      <c r="P13">
-        <v>0.005684860538375417</v>
-      </c>
-      <c r="Q13">
-        <v>8.152655E-05</v>
-      </c>
-      <c r="R13">
-        <v>0.0007337389500000001</v>
-      </c>
-      <c r="S13">
-        <v>0.0002383044169265913</v>
-      </c>
-      <c r="T13">
-        <v>0.0002383044169265913</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.1232116666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.369635</v>
-      </c>
-      <c r="I14">
-        <v>0.03452721483580623</v>
-      </c>
-      <c r="J14">
-        <v>0.03452721483580623</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.050779</v>
-      </c>
-      <c r="N14">
-        <v>0.152337</v>
-      </c>
-      <c r="O14">
-        <v>0.5296725381250739</v>
-      </c>
-      <c r="P14">
-        <v>0.529672538125074</v>
-      </c>
-      <c r="Q14">
-        <v>0.006256565221666667</v>
-      </c>
-      <c r="R14">
-        <v>0.05630908699500001</v>
-      </c>
-      <c r="S14">
-        <v>0.01828811751647119</v>
-      </c>
-      <c r="T14">
-        <v>0.0182881175164712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.1232116666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.369635</v>
-      </c>
-      <c r="I15">
-        <v>0.03452721483580623</v>
-      </c>
-      <c r="J15">
-        <v>0.03452721483580623</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.04454466666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.133634</v>
-      </c>
-      <c r="O15">
-        <v>0.4646426013365507</v>
-      </c>
-      <c r="P15">
-        <v>0.4646426013365508</v>
-      </c>
-      <c r="Q15">
-        <v>0.005488422621111112</v>
-      </c>
-      <c r="R15">
-        <v>0.04939580359000001</v>
-      </c>
-      <c r="S15">
-        <v>0.01604281491821495</v>
-      </c>
-      <c r="T15">
-        <v>0.01604281491821495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.1232116666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.369635</v>
-      </c>
-      <c r="I16">
-        <v>0.03452721483580623</v>
-      </c>
-      <c r="J16">
-        <v>0.03452721483580623</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.000545</v>
-      </c>
-      <c r="N16">
-        <v>0.001635</v>
-      </c>
-      <c r="O16">
-        <v>0.005684860538375416</v>
-      </c>
-      <c r="P16">
-        <v>0.005684860538375417</v>
-      </c>
-      <c r="Q16">
-        <v>6.715035833333335E-05</v>
-      </c>
-      <c r="R16">
-        <v>0.0006043532250000002</v>
-      </c>
-      <c r="S16">
-        <v>0.0001962824011200851</v>
-      </c>
-      <c r="T16">
-        <v>0.0001962824011200851</v>
+        <v>0.000969863734601223</v>
       </c>
     </row>
   </sheetData>
